--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,65 +434,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>John</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>marketCap</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
+        <v>2822200623104</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1250332377088</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1569440268288</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jane</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>s&amp;pweight</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
+        <v>7.383564957684216</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.271174362781919</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.106038413160241</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mike</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>35</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>operationMargin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>lastClose</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>120.58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>122.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ytdPerformance</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.218617771509166</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.18593464919556</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.004069341580540135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>385095008256</v>
+      </c>
+      <c r="C7" t="n">
+        <v>524896993280</v>
+      </c>
+      <c r="D7" t="n">
+        <v>284612001792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>netIncome</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>94321000448</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4294000128</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58587000832</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>operatingMargin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.29163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02542</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.25355</v>
       </c>
     </row>
   </sheetData>
